--- a/doc/SCRUM/Sprint 2 Burndown.xlsx
+++ b/doc/SCRUM/Sprint 2 Burndown.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\locky\OneDrive\Documents\GitHub\IFB299\doc\SCRUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/locky/git/IFB299/doc/SCRUM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="465" windowWidth="27555" windowHeight="16305" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="27560" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -407,6 +407,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -510,70 +511,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2ACB-4BBB-BBDA-4E7967DD6B78}"/>
             </c:ext>
@@ -677,67 +678,67 @@
                   <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.599999999999994</c:v>
+                  <c:v>39.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.399999999999991</c:v>
+                  <c:v>37.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.199999999999989</c:v>
+                  <c:v>35.19999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.999999999999986</c:v>
+                  <c:v>32.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.799999999999986</c:v>
+                  <c:v>30.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.599999999999987</c:v>
+                  <c:v>28.59999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.399999999999988</c:v>
+                  <c:v>26.39999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.199999999999989</c:v>
+                  <c:v>24.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.999999999999989</c:v>
+                  <c:v>21.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>19.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.599999999999991</c:v>
+                  <c:v>17.59999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.399999999999991</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.199999999999992</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.999999999999993</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.7999999999999936</c:v>
+                  <c:v>8.799999999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5999999999999934</c:v>
+                  <c:v>6.599999999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3999999999999932</c:v>
+                  <c:v>4.399999999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1999999999999931</c:v>
+                  <c:v>2.199999999999993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2ACB-4BBB-BBDA-4E7967DD6B78}"/>
             </c:ext>
@@ -752,11 +753,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1222530384"/>
-        <c:axId val="-1222528336"/>
+        <c:axId val="-1221672080"/>
+        <c:axId val="-1221829632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1222530384"/>
+        <c:axId val="-1221672080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1222528336"/>
+        <c:crossAx val="-1221829632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -774,7 +775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1222528336"/>
+        <c:axId val="-1221829632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,13 +804,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1222530384"/>
+        <c:crossAx val="-1221672080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -820,7 +822,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -846,7 +848,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,22 +1193,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:X36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="64.5" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="24" max="24" width="16.5" customWidth="1"/>
-    <col min="25" max="25" width="13.125" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1234,7 +1236,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>53</v>
       </c>
@@ -1264,7 +1266,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1292,7 +1294,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1320,7 +1322,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -1352,7 +1354,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:39" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
@@ -1397,7 +1399,7 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
     </row>
-    <row r="7" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="3"/>
       <c r="C7" s="11"/>
@@ -1438,7 +1440,7 @@
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
     </row>
-    <row r="8" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="3"/>
       <c r="C8" s="11"/>
@@ -1479,7 +1481,7 @@
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
     </row>
-    <row r="9" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="3"/>
       <c r="C9" s="11"/>
@@ -1520,7 +1522,7 @@
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
     </row>
-    <row r="10" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>29</v>
       </c>
@@ -1565,7 +1567,7 @@
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
     </row>
-    <row r="11" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -1610,7 +1612,7 @@
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
     </row>
-    <row r="12" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>31</v>
       </c>
@@ -1653,7 +1655,7 @@
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
@@ -1694,7 +1696,7 @@
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -1735,7 +1737,7 @@
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
     </row>
-    <row r="15" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
@@ -1776,7 +1778,7 @@
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
@@ -1817,7 +1819,7 @@
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -1858,7 +1860,7 @@
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +1950,7 @@
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
     </row>
-    <row r="19" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>32</v>
       </c>
@@ -2038,7 +2040,7 @@
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
     </row>
-    <row r="20" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>33</v>
       </c>
@@ -2128,7 +2130,7 @@
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
     </row>
-    <row r="21" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>34</v>
       </c>
@@ -2218,7 +2220,7 @@
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
     </row>
-    <row r="22" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>35</v>
       </c>
@@ -2308,7 +2310,7 @@
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
     </row>
-    <row r="23" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>36</v>
       </c>
@@ -2398,7 +2400,7 @@
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
     </row>
-    <row r="24" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>37</v>
       </c>
@@ -2488,7 +2490,7 @@
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
     </row>
-    <row r="25" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>38</v>
       </c>
@@ -2570,7 +2572,7 @@
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
     </row>
-    <row r="26" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>39</v>
       </c>
@@ -2652,7 +2654,7 @@
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
     </row>
-    <row r="27" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>40</v>
       </c>
@@ -2729,7 +2731,7 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>41</v>
       </c>
@@ -2806,7 +2808,7 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
     </row>
-    <row r="29" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
@@ -2883,7 +2885,7 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
     </row>
-    <row r="30" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>43</v>
       </c>
@@ -2960,7 +2962,7 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
     </row>
-    <row r="31" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>44</v>
       </c>
@@ -3037,7 +3039,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>45</v>
       </c>
@@ -3114,7 +3116,7 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>46</v>
       </c>
@@ -3191,7 +3193,7 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
     </row>
-    <row r="34" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>47</v>
       </c>
@@ -3268,7 +3270,7 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
     </row>
-    <row r="35" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>50</v>
       </c>
@@ -3345,7 +3347,7 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
     </row>
-    <row r="36" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>48</v>
       </c>
@@ -3422,7 +3424,7 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>23</v>
       </c>
@@ -3515,7 +3517,7 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>24</v>
       </c>
@@ -3609,7 +3611,7 @@
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
@@ -3637,7 +3639,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
@@ -3665,7 +3667,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:27" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>52</v>
       </c>
@@ -3695,7 +3697,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
@@ -3723,7 +3725,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
@@ -3751,7 +3753,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
@@ -3779,7 +3781,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
@@ -3807,7 +3809,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="3"/>
@@ -3835,7 +3837,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
@@ -3863,7 +3865,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
@@ -3891,7 +3893,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="3"/>
@@ -3919,7 +3921,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="3"/>
@@ -3947,7 +3949,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="3"/>
@@ -3975,7 +3977,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="3"/>
@@ -4003,7 +4005,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
@@ -4031,7 +4033,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="3"/>
@@ -4059,7 +4061,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="3"/>
@@ -4087,7 +4089,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="3"/>
@@ -4115,7 +4117,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="3"/>
@@ -4143,7 +4145,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="3"/>
@@ -4171,7 +4173,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="3"/>
@@ -4199,7 +4201,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
@@ -4227,7 +4229,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="3"/>
@@ -4255,7 +4257,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="3"/>
@@ -4283,7 +4285,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="3"/>
@@ -4311,7 +4313,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
@@ -4339,7 +4341,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
@@ -4367,7 +4369,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="3"/>
@@ -4395,7 +4397,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="3"/>
@@ -4423,7 +4425,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="3"/>
@@ -4451,7 +4453,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="3"/>
@@ -4479,7 +4481,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="3"/>
@@ -4507,7 +4509,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="3"/>
@@ -4535,7 +4537,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
@@ -4563,7 +4565,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
@@ -4591,7 +4593,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="3"/>
@@ -4619,7 +4621,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="3"/>
@@ -4647,7 +4649,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="3"/>
@@ -4675,7 +4677,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="3"/>
@@ -4703,7 +4705,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="3"/>
@@ -4731,7 +4733,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="3"/>
@@ -4759,7 +4761,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="3"/>
@@ -4787,7 +4789,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="3"/>
@@ -4815,7 +4817,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="3"/>
@@ -4843,7 +4845,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="3"/>
@@ -4871,7 +4873,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
@@ -4899,7 +4901,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="3"/>
@@ -4927,7 +4929,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="3"/>
@@ -4955,7 +4957,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="3"/>
@@ -4983,7 +4985,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="3"/>
@@ -5011,7 +5013,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
@@ -5039,7 +5041,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="3"/>
@@ -5066,7 +5068,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="3"/>
@@ -5093,7 +5095,7 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="3"/>
@@ -5120,7 +5122,7 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="3"/>
@@ -5147,7 +5149,7 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="3"/>
@@ -5174,7 +5176,7 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="3"/>
@@ -5201,7 +5203,7 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="3"/>
@@ -5228,7 +5230,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
@@ -5253,7 +5255,7 @@
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
@@ -5278,7 +5280,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
@@ -5303,7 +5305,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="3"/>
@@ -5328,7 +5330,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
@@ -5353,7 +5355,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
@@ -5378,7 +5380,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="3"/>
@@ -5403,7 +5405,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="3"/>
@@ -5428,7 +5430,7 @@
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="3"/>
@@ -5453,7 +5455,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
@@ -5478,7 +5480,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -5503,7 +5505,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
@@ -5528,7 +5530,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="3"/>
@@ -5553,7 +5555,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="3"/>
@@ -5578,7 +5580,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
@@ -5603,7 +5605,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="3"/>
@@ -5628,7 +5630,7 @@
       <c r="V112" s="3"/>
       <c r="W112" s="3"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="3"/>
@@ -5653,7 +5655,7 @@
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="3"/>
@@ -5678,7 +5680,7 @@
       <c r="V114" s="3"/>
       <c r="W114" s="3"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="3"/>
@@ -5703,7 +5705,7 @@
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="3"/>
@@ -5728,7 +5730,7 @@
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="3"/>
@@ -5753,7 +5755,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="3"/>
@@ -5765,7 +5767,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="3"/>
@@ -5777,7 +5779,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="3"/>
@@ -5789,7 +5791,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="3"/>
@@ -5801,7 +5803,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="3"/>
@@ -5813,7 +5815,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="3"/>
@@ -5825,7 +5827,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="3"/>
@@ -5837,7 +5839,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="3"/>
@@ -5849,7 +5851,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="3"/>
@@ -5861,7 +5863,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="3"/>
@@ -5873,7 +5875,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="3"/>
@@ -5885,7 +5887,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="3"/>
@@ -5897,7 +5899,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="3"/>
@@ -5909,7 +5911,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="3"/>
@@ -5921,7 +5923,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="3"/>
@@ -5933,7 +5935,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="3"/>
@@ -5945,7 +5947,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="3"/>
@@ -5957,7 +5959,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="3"/>
@@ -5969,7 +5971,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="3"/>
